--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06602300000000001</v>
+        <v>0.08511433333333333</v>
       </c>
       <c r="H2">
-        <v>0.198069</v>
+        <v>0.255343</v>
       </c>
       <c r="I2">
-        <v>0.113548560929398</v>
+        <v>0.3100414411767206</v>
       </c>
       <c r="J2">
-        <v>0.113548560929398</v>
+        <v>0.3100414411767206</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01449333333333333</v>
+        <v>0.003615</v>
       </c>
       <c r="N2">
-        <v>0.04348</v>
+        <v>0.010845</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0009568933466666667</v>
+        <v>0.000307688315</v>
       </c>
       <c r="R2">
-        <v>0.008612040120000001</v>
+        <v>0.002769194835</v>
       </c>
       <c r="S2">
-        <v>0.113548560929398</v>
+        <v>0.3100414411767206</v>
       </c>
       <c r="T2">
-        <v>0.113548560929398</v>
+        <v>0.3100414411767206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.016209</v>
       </c>
       <c r="I3">
-        <v>0.009292259889758681</v>
+        <v>0.01968121984951013</v>
       </c>
       <c r="J3">
-        <v>0.009292259889758681</v>
+        <v>0.01968121984951013</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01449333333333333</v>
+        <v>0.003615</v>
       </c>
       <c r="N3">
-        <v>0.04348</v>
+        <v>0.010845</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>7.830748E-05</v>
+        <v>1.9531845E-05</v>
       </c>
       <c r="R3">
-        <v>0.00070476732</v>
+        <v>0.000175786605</v>
       </c>
       <c r="S3">
-        <v>0.009292259889758681</v>
+        <v>0.01968121984951013</v>
       </c>
       <c r="T3">
-        <v>0.009292259889758681</v>
+        <v>0.01968121984951013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5100256666666666</v>
+        <v>0.1840083333333333</v>
       </c>
       <c r="H4">
-        <v>1.530077</v>
+        <v>0.552025</v>
       </c>
       <c r="I4">
-        <v>0.8771591791808433</v>
+        <v>0.6702773389737693</v>
       </c>
       <c r="J4">
-        <v>0.8771591791808434</v>
+        <v>0.6702773389737693</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01449333333333333</v>
+        <v>0.003615</v>
       </c>
       <c r="N4">
-        <v>0.04348</v>
+        <v>0.010845</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.007391971995555554</v>
+        <v>0.000665190125</v>
       </c>
       <c r="R4">
-        <v>0.06652774795999999</v>
+        <v>0.005986711125</v>
       </c>
       <c r="S4">
-        <v>0.8771591791808433</v>
+        <v>0.6702773389737693</v>
       </c>
       <c r="T4">
-        <v>0.8771591791808434</v>
+        <v>0.6702773389737693</v>
       </c>
     </row>
   </sheetData>
